--- a/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85BD0F-FA9C-446C-8D89-61E2A8692B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE9253-3BE0-47E4-A892-CCCCBFA0C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -181,6 +181,48 @@
   </si>
   <si>
     <t>70903536</t>
+  </si>
+  <si>
+    <t>ASTETE MALASQUEZ</t>
+  </si>
+  <si>
+    <t>VICTOR NICOLAS</t>
+  </si>
+  <si>
+    <t>CUYA CHAMORRO</t>
+  </si>
+  <si>
+    <t>BRISA DANA</t>
+  </si>
+  <si>
+    <t>ESPINOZA SANCHEZ</t>
+  </si>
+  <si>
+    <t>JHOEL CRISTHIAN</t>
+  </si>
+  <si>
+    <t>GUTIERREZ LA ROSA</t>
+  </si>
+  <si>
+    <t>KATLEHEN DANIELA</t>
+  </si>
+  <si>
+    <t>ASTETE MALASQUEZ VICTOR NICOLAS</t>
+  </si>
+  <si>
+    <t>CUYA CHAMORRO BRISA DANA</t>
+  </si>
+  <si>
+    <t>ESPINOZA SANCHEZ JHOEL CRISTHIAN</t>
+  </si>
+  <si>
+    <t>71402573</t>
+  </si>
+  <si>
+    <t>60638954</t>
+  </si>
+  <si>
+    <t>73690505</t>
   </si>
 </sst>
 </file>
@@ -655,10 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -757,7 +800,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -789,7 +832,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -823,7 +866,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -857,7 +900,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -889,7 +932,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -922,15 +965,33 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="18">
+        <v>44723</v>
+      </c>
+      <c r="E11" s="18">
+        <v>44727</v>
+      </c>
+      <c r="F11" s="18">
+        <v>44734</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -938,14 +999,30 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="18">
+        <v>44698</v>
+      </c>
+      <c r="E12" s="18">
+        <v>44730</v>
+      </c>
+      <c r="F12" s="18">
+        <v>44734</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="9"/>
@@ -954,15 +1031,33 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="18">
+        <v>44667</v>
+      </c>
+      <c r="E13" s="18">
+        <v>44725</v>
+      </c>
+      <c r="F13" s="18">
+        <v>44734</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -970,15 +1065,33 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="18">
+        <v>44644</v>
+      </c>
+      <c r="E14" s="18">
+        <v>44729</v>
+      </c>
+      <c r="F14" s="18">
+        <v>44734</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1137,6 +1250,13 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:N14" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+    <filterColumn colId="5">
+      <filters>
+        <dateGroupItem year="2022" month="6" day="22" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1147,7 +1267,7 @@
   <dimension ref="B4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,34 +1400,50 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+        <v>ASTETE MALASQUEZ VICTOR NICOLAS</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+        <v>CUYA CHAMORRO BRISA DANA</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+        <v>ESPINOZA SANCHEZ JHOEL CRISTHIAN</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+        <v>GUTIERREZ LA ROSA KATLEHEN DANIELA</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">

--- a/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE9253-3BE0-47E4-A892-CCCCBFA0C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21685995-2B61-40CF-B357-540081976C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -111,36 +111,12 @@
     <t>NO RENOVO</t>
   </si>
   <si>
-    <t>HUAMAN COSME</t>
-  </si>
-  <si>
-    <t>RICARDO ANDRE</t>
-  </si>
-  <si>
-    <t>MEZA MANCO</t>
-  </si>
-  <si>
-    <t>JHONELL MARTIN</t>
-  </si>
-  <si>
     <t>HUAMAN COSME RICARDO ANDRE</t>
   </si>
   <si>
     <t>MEZA MANCO JHONELL MARTIN</t>
   </si>
   <si>
-    <t>CHUMPITAZ ROMAN</t>
-  </si>
-  <si>
-    <t>MARGARITA</t>
-  </si>
-  <si>
-    <t>HUACCHA RAMOS</t>
-  </si>
-  <si>
-    <t>JHORDY GERARDO</t>
-  </si>
-  <si>
     <t>CHUMPITAZ ROMAN MARGARITA</t>
   </si>
   <si>
@@ -156,12 +132,6 @@
     <t>48240872</t>
   </si>
   <si>
-    <t>MALASQUEZ BERNALES</t>
-  </si>
-  <si>
-    <t>DIANA ISABEL</t>
-  </si>
-  <si>
     <t>MALASQUEZ BERNALES DIANA ISABEL</t>
   </si>
   <si>
@@ -171,42 +141,12 @@
     <t>RENUNCIA</t>
   </si>
   <si>
-    <t>BOJORQUEZ BERROCAL</t>
-  </si>
-  <si>
-    <t>LUZ CRISTINA</t>
-  </si>
-  <si>
     <t>BOJORQUEZ BERROCAL LUZ CRISTINA</t>
   </si>
   <si>
     <t>70903536</t>
   </si>
   <si>
-    <t>ASTETE MALASQUEZ</t>
-  </si>
-  <si>
-    <t>VICTOR NICOLAS</t>
-  </si>
-  <si>
-    <t>CUYA CHAMORRO</t>
-  </si>
-  <si>
-    <t>BRISA DANA</t>
-  </si>
-  <si>
-    <t>ESPINOZA SANCHEZ</t>
-  </si>
-  <si>
-    <t>JHOEL CRISTHIAN</t>
-  </si>
-  <si>
-    <t>GUTIERREZ LA ROSA</t>
-  </si>
-  <si>
-    <t>KATLEHEN DANIELA</t>
-  </si>
-  <si>
     <t>ASTETE MALASQUEZ VICTOR NICOLAS</t>
   </si>
   <si>
@@ -223,6 +163,18 @@
   </si>
   <si>
     <t>73690505</t>
+  </si>
+  <si>
+    <t>AVALOS VEGA</t>
+  </si>
+  <si>
+    <t>YHEIK HENRY</t>
+  </si>
+  <si>
+    <t>AVALOS VEGA YHEIK HENRY</t>
+  </si>
+  <si>
+    <t>71408068</t>
   </si>
 </sst>
 </file>
@@ -327,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +656,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="17">
         <v>75696636</v>
@@ -805,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="17">
         <v>42923404</v>
@@ -837,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D7" s="18">
         <v>44706</v>
@@ -858,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="9"/>
@@ -871,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" s="18">
         <v>44693</v>
@@ -892,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="9"/>
@@ -905,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D9" s="18">
         <v>44695</v>
@@ -920,7 +875,7 @@
         <v>44718</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>4</v>
@@ -937,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D10" s="18">
         <v>44680</v>
@@ -952,7 +907,7 @@
         <v>44719</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>4</v>
@@ -964,15 +919,15 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D11" s="18">
         <v>44723</v>
@@ -990,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="9"/>
@@ -998,15 +953,15 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D12" s="18">
         <v>44698</v>
@@ -1018,7 +973,7 @@
         <v>44734</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>4</v>
@@ -1030,15 +985,15 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D13" s="18">
         <v>44667</v>
@@ -1056,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="9"/>
@@ -1064,7 +1019,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -1090,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="9"/>
@@ -1099,14 +1054,30 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="18">
+        <v>44707</v>
+      </c>
+      <c r="E15" s="18">
+        <v>44734</v>
+      </c>
+      <c r="F15" s="18">
+        <v>44735</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="9"/>
@@ -1250,10 +1221,10 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N14" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+  <autoFilter ref="A4:N15" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
     <filterColumn colId="5">
       <filters>
-        <dateGroupItem year="2022" month="6" day="22" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="6" day="23" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1267,7 +1238,7 @@
   <dimension ref="B4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,26 +1267,22 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>HUAMAN COSME RICARDO ANDRE</v>
+        <v>AVALOS VEGA YHEIK HENRY</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="str">
         <f t="shared" ref="B7:B20" si="1">CONCATENATE(C7," ",D7)</f>
-        <v>MEZA MANCO JHONELL MARTIN</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="str">
@@ -1328,26 +1295,18 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>CHUMPITAZ ROMAN MARGARITA</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>HUACCHA RAMOS JHORDY GERARDO</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="str">
@@ -1360,14 +1319,10 @@
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MALASQUEZ BERNALES DIANA ISABEL</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="str">
@@ -1380,14 +1335,10 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>BOJORQUEZ BERROCAL LUZ CRISTINA</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="str">
@@ -1400,50 +1351,34 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>ASTETE MALASQUEZ VICTOR NICOLAS</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>49</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>CUYA CHAMORRO BRISA DANA</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>ESPINOZA SANCHEZ JHOEL CRISTHIAN</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>53</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>GUTIERREZ LA ROSA KATLEHEN DANIELA</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">

--- a/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21685995-2B61-40CF-B357-540081976C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791EAB37-6079-4885-9293-22EA0B781275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>71408068</t>
+  </si>
+  <si>
+    <t>MANCO FERNANDEZ</t>
+  </si>
+  <si>
+    <t>ROSA MILAGROS</t>
+  </si>
+  <si>
+    <t>MANCO FERNANDEZ ROSA MILAGROS</t>
+  </si>
+  <si>
+    <t>73525960</t>
   </si>
 </sst>
 </file>
@@ -279,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,9 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +665,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,14 +1062,14 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="18">
@@ -1086,14 +1095,30 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="18">
+        <v>44706</v>
+      </c>
+      <c r="E16" s="18">
+        <v>44735</v>
+      </c>
+      <c r="F16" s="18">
+        <v>44736</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="9"/>
@@ -1221,10 +1246,10 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N15" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+  <autoFilter ref="A4:N16" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
     <filterColumn colId="5">
       <filters>
-        <dateGroupItem year="2022" month="6" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="6" day="24" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1238,7 +1263,7 @@
   <dimension ref="B4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,10 +1312,14 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+        <v>MANCO FERNANDEZ ROSA MILAGROS</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="str">

--- a/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791EAB37-6079-4885-9293-22EA0B781275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B09C6-9DCB-4FA4-81E9-54421C747696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>73525960</t>
+  </si>
+  <si>
+    <t>SUEL CAYLLAHUA</t>
+  </si>
+  <si>
+    <t>LISET</t>
+  </si>
+  <si>
+    <t>SUEL CAYLLAHUA LISET</t>
   </si>
 </sst>
 </file>
@@ -291,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +677,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1106,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -1127,14 +1139,30 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="20">
+        <v>77462803</v>
+      </c>
+      <c r="D17" s="21">
+        <v>44523</v>
+      </c>
+      <c r="E17" s="18">
+        <v>44735</v>
+      </c>
+      <c r="F17" s="18">
+        <v>44737</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="9"/>
@@ -1246,10 +1274,10 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N16" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+  <autoFilter ref="A4:N17" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
     <filterColumn colId="5">
       <filters>
-        <dateGroupItem year="2022" month="6" day="24" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="6" day="25" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1263,7 +1291,7 @@
   <dimension ref="B4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,10 +1360,14 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+        <v>SUEL CAYLLAHUA LISET</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="str">

--- a/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B09C6-9DCB-4FA4-81E9-54421C747696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECB37D-C854-4FAB-AF2D-5696AB3FFE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -673,11 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -776,7 +775,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -808,7 +807,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -842,7 +841,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -876,7 +875,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -908,7 +907,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -940,7 +939,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -974,7 +973,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -1006,7 +1005,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -1040,7 +1039,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -1074,7 +1073,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -1106,7 +1105,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -1274,13 +1273,7 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N17" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
-    <filterColumn colId="5">
-      <filters>
-        <dateGroupItem year="2022" month="6" day="25" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:N17" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECB37D-C854-4FAB-AF2D-5696AB3FFE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24B8D7-4046-4BC1-A6EF-E2A984DE89C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -165,37 +165,31 @@
     <t>73690505</t>
   </si>
   <si>
-    <t>AVALOS VEGA</t>
-  </si>
-  <si>
-    <t>YHEIK HENRY</t>
-  </si>
-  <si>
     <t>AVALOS VEGA YHEIK HENRY</t>
   </si>
   <si>
     <t>71408068</t>
   </si>
   <si>
-    <t>MANCO FERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROSA MILAGROS</t>
-  </si>
-  <si>
     <t>MANCO FERNANDEZ ROSA MILAGROS</t>
   </si>
   <si>
     <t>73525960</t>
   </si>
   <si>
-    <t>SUEL CAYLLAHUA</t>
-  </si>
-  <si>
-    <t>LISET</t>
-  </si>
-  <si>
     <t>SUEL CAYLLAHUA LISET</t>
+  </si>
+  <si>
+    <t>ASTO OSORIO</t>
+  </si>
+  <si>
+    <t>VICTOR ZENON</t>
+  </si>
+  <si>
+    <t>ASTO OSORIO VICTOR ZENON</t>
+  </si>
+  <si>
+    <t>71974436</t>
   </si>
 </sst>
 </file>
@@ -673,10 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -775,7 +770,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -807,7 +802,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -841,7 +836,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -875,7 +870,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -907,7 +902,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -939,7 +934,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -973,7 +968,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -1005,7 +1000,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -1039,7 +1034,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -1073,15 +1068,15 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18">
         <v>44707</v>
@@ -1105,15 +1100,15 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="18">
         <v>44706</v>
@@ -1137,12 +1132,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C17" s="20">
         <v>77462803</v>
@@ -1170,14 +1165,30 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="18">
+        <v>44723</v>
+      </c>
+      <c r="E18" s="18">
+        <v>44729</v>
+      </c>
+      <c r="F18" s="18">
+        <v>44742</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="9"/>
@@ -1273,7 +1284,13 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N17" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}"/>
+  <autoFilter ref="A4:N18" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+    <filterColumn colId="5">
+      <filters>
+        <dateGroupItem year="2022" month="6" day="30" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1284,7 +1301,7 @@
   <dimension ref="B4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,10 +1314,14 @@
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="str">
         <f t="shared" ref="B4:B6" si="0">CONCATENATE(C4," ",D4)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+        <v>ASTO OSORIO VICTOR ZENON</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="str">
@@ -1313,14 +1334,10 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>AVALOS VEGA YHEIK HENRY</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="str">
@@ -1333,14 +1350,10 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MANCO FERNANDEZ ROSA MILAGROS</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="str">
@@ -1353,14 +1366,10 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>SUEL CAYLLAHUA LISET</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="str">

--- a/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/JUNIO-2022-CESES-PUCUSANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24B8D7-4046-4BC1-A6EF-E2A984DE89C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E59E1-AED0-4DF3-8B26-A216F6FA609A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -190,6 +190,27 @@
   </si>
   <si>
     <t>71974436</t>
+  </si>
+  <si>
+    <t>BARTOLO SANTOS</t>
+  </si>
+  <si>
+    <t>EVELYN ROSALYNDA</t>
+  </si>
+  <si>
+    <t>DIAZ ORTIZ</t>
+  </si>
+  <si>
+    <t>GLADYS SUSANA</t>
+  </si>
+  <si>
+    <t>BARTOLO SANTOS EVELYN ROSALYNDA</t>
+  </si>
+  <si>
+    <t>DIAZ ORTIZ GLADYS SUSANA</t>
+  </si>
+  <si>
+    <t>75147938</t>
   </si>
 </sst>
 </file>
@@ -667,11 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,9 +704,9 @@
     <col min="6" max="6" width="12.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="14" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="4" customWidth="1"/>
+    <col min="11" max="14" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -738,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -770,7 +790,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -802,7 +822,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -836,7 +856,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -870,7 +890,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -902,7 +922,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -934,7 +954,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -968,7 +988,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -1000,7 +1020,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -1034,7 +1054,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -1068,7 +1088,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -1100,7 +1120,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -1132,7 +1152,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -1197,36 +1217,88 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="A19" s="15">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="18">
+        <v>44660</v>
+      </c>
+      <c r="E19" s="18">
+        <v>44742</v>
+      </c>
+      <c r="F19" s="18">
+        <v>44743</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="J19" s="3">
+        <v>7</v>
+      </c>
+      <c r="K19" s="9">
+        <v>4</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="15">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="20">
+        <v>76438151</v>
+      </c>
+      <c r="D20" s="18">
+        <v>44648</v>
+      </c>
+      <c r="E20" s="18">
+        <v>44740</v>
+      </c>
+      <c r="F20" s="18">
+        <v>44743</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="J20" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -1284,13 +1356,6 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N18" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
-    <filterColumn colId="5">
-      <filters>
-        <dateGroupItem year="2022" month="6" day="30" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1301,7 +1366,7 @@
   <dimension ref="B4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,18 +1399,26 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+        <v>BARTOLO SANTOS EVELYN ROSALYNDA</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="str">
         <f t="shared" ref="B7:B20" si="1">CONCATENATE(C7," ",D7)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+        <v>DIAZ ORTIZ GLADYS SUSANA</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="str">
